--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,47 +788,6 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>123</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1234</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>12345</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>71190504</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,11 +468,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>71190510</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Joshua Benevan Wisnuwardhana</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -481,11 +481,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>71231014</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fransina Riyanty Batlayar</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -785,6 +785,30 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>Richard Vanuella</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NIM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nama</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,17 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NIM</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NIM</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nama</t>
         </is>
@@ -452,374 +447,261 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Stefanus Aditya Dwi Cahyono</t>
+        <v>71190510</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Joshua Benevan Wisnuwardhana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
+        <v>71231014</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fransina Riyanty Batlayar</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>71231038</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amelia Agustin</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>71231038</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Amelia Agustin</t>
+        <v>71241071</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jeremy Fidelo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>71241071</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Jeremy Fidelo</t>
+        <v>71241072</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gilbert Danelle Lo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>71241072</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Gilbert Danelle Lo</t>
+        <v>71241073</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stefanus Westin Giovanno Mursito</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>71241073</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Stefanus Westin Giovanno Mursito</t>
+        <v>71241075</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Giovanni Albert Harjanto</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>71241075</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Giovanni Albert Harjanto</t>
+        <v>71241078</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kevin Setiadi Wijaya</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>71241078</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Kevin Setiadi Wijaya</t>
+        <v>71241079</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Natalie Neysa Jessica Soesanto</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>71241079</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Natalie Neysa Jessica Soesanto</t>
+        <v>71241083</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ignacia Aurelia Robetta</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>71241083</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Ignacia Aurelia Robetta</t>
+        <v>71241085</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Samuel Kristos Xavier</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>71241085</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Samuel Kristos Xavier</t>
+        <v>71241091</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Abel Lalang Buana</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>71241091</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Abel Lalang Buana</t>
+        <v>71241099</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Listyan Aji Maharsi Pratama</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>71241099</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Listyan Aji Maharsi Pratama</t>
+        <v>71241105</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Audris Kasula</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>71241105</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Audris Kasula</t>
+        <v>71241106</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hervian Paskah Pradana</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>71241106</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Hervian Paskah Pradana</t>
+        <v>71241114</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hendrikus Lanang Ona</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="n">
-        <v>71241114</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hendrikus Lanang Ona</t>
+        <v>71241115</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Devon Novan Surya Putra</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="n">
-        <v>71241115</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Devon Novan Surya Putra</t>
+        <v>71241116</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Putra Eka Setiawan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>71241116</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Putra Eka Setiawan</t>
+        <v>71241117</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Winlardo Thie</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n">
-        <v>71241117</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Winlardo Thie</t>
+        <v>71241119</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Antonius Kiya Ananda Derron</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>71241119</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Antonius Kiya Ananda Derron</t>
+        <v>71241123</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fransiska</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>71241123</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Fransiska</t>
+        <v>71241151</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Harrison Abraham Pribadi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>71241151</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Harrison Abraham Pribadi</t>
+        <v>71241153</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Felix Benedictus Setiawan</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>71241153</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Felix Benedictus Setiawan</t>
+        <v>71241156</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jochelino Felix Kurniawan</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>71241156</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Jochelino Felix Kurniawan</t>
+        <v>71241159</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Richard Vanuella</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>71241159</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Richard Vanuella</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>NIM</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Nama</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>6</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="n">
-        <v>7</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>7</t>
+        <v>71190504</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stefanus Aditya Dwi Cahyono</t>
         </is>
       </c>
     </row>

--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,266 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>71190510</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Joshua Benevan Wisnuwardhana</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>71231014</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fransina Riyanty Batlayar</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>71231038</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Amelia Agustin</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>71241071</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jeremy Fidelo</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>71241072</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gilbert Danelle Lo</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>71241073</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Stefanus Westin Giovanno Mursito</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>71241075</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Giovanni Albert Harjanto</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>71241078</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Kevin Setiadi Wijaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>71241079</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Natalie Neysa Jessica Soesanto</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>71241083</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ignacia Aurelia Robetta</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>71241085</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Samuel Kristos Xavier</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>71241091</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Abel Lalang Buana</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>71241099</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Listyan Aji Maharsi Pratama</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>71241105</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Audris Kasula</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>71241106</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hervian Paskah Pradana</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>71241114</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Hendrikus Lanang Ona</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>71241115</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Devon Novan Surya Putra</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>71241116</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Putra Eka Setiawan</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>71241117</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Winlardo Thie</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>71241119</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Antonius Kiya Ananda Derron</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>71241123</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fransiska</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>71241151</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Harrison Abraham Pribadi</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>71241153</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Felix Benedictus Setiawan</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>71241156</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Jochelino Felix Kurniawan</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>71241159</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Richard Vanuella</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>71190504</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Stefanus Aditya Dwi Cahyono</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataExcel.xlsx
+++ b/dataExcel.xlsx
@@ -1,37 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ngampus\Semester 5\Asdos\PrakStrukdat\UG\soalTabularPrStrukdat\Soal\Hari2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56717920-D041-46F6-AA9F-6313757F8148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>NIM</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>71200556</t>
+  </si>
+  <si>
+    <t>Frans Sailapra</t>
+  </si>
+  <si>
+    <t>71200573</t>
+  </si>
+  <si>
+    <t>Jonathan Andreas Enrico Yomaki</t>
+  </si>
+  <si>
+    <t>71210720</t>
+  </si>
+  <si>
+    <t>Christopher Justine Wijaya</t>
+  </si>
+  <si>
+    <t>71231057</t>
+  </si>
+  <si>
+    <t>Vensya M.n Motuti</t>
+  </si>
+  <si>
+    <t>71241074</t>
+  </si>
+  <si>
+    <t>Rebecca Abdi Kinanthi</t>
+  </si>
+  <si>
+    <t>71241076</t>
+  </si>
+  <si>
+    <t>Klemens Aurel Adyatma</t>
+  </si>
+  <si>
+    <t>71241077</t>
+  </si>
+  <si>
+    <t>Jonathan Christiano</t>
+  </si>
+  <si>
+    <t>71241080</t>
+  </si>
+  <si>
+    <t>Grace Violin</t>
+  </si>
+  <si>
+    <t>71241092</t>
+  </si>
+  <si>
+    <t>Rafael Rajendra Riantoputra</t>
+  </si>
+  <si>
+    <t>71241097</t>
+  </si>
+  <si>
+    <t>Delvin Laurens</t>
+  </si>
+  <si>
+    <t>71241100</t>
+  </si>
+  <si>
+    <t>Indy Gracia Talantan</t>
+  </si>
+  <si>
+    <t>71241101</t>
+  </si>
+  <si>
+    <t>Joachim Akwila Marc Uly</t>
+  </si>
+  <si>
+    <t>71241106</t>
+  </si>
+  <si>
+    <t>Sthacya Marela Elsithalia Lakamola</t>
+  </si>
+  <si>
+    <t>71241108</t>
+  </si>
+  <si>
+    <t>Jessie Catherine Adile</t>
+  </si>
+  <si>
+    <t>71241120</t>
+  </si>
+  <si>
+    <t>Intan Aryani</t>
+  </si>
+  <si>
+    <t>71241125</t>
+  </si>
+  <si>
+    <t>Samuel Varabu Djahimo</t>
+  </si>
+  <si>
+    <t>71241135</t>
+  </si>
+  <si>
+    <t>Marvin Patric Theodorus</t>
+  </si>
+  <si>
+    <t>71241144</t>
+  </si>
+  <si>
+    <t>Sandy Rehan Linta'</t>
+  </si>
+  <si>
+    <t>71241147</t>
+  </si>
+  <si>
+    <t>Yosiabes Priarsono</t>
+  </si>
+  <si>
+    <t>71241158</t>
+  </si>
+  <si>
+    <t>Justin William</t>
+  </si>
+  <si>
+    <t>71241160</t>
+  </si>
+  <si>
+    <t>Anselmus Chriesto Damar Hoedyono</t>
+  </si>
+  <si>
+    <t>71241162</t>
+  </si>
+  <si>
+    <t>Dita Pranata Tandisau</t>
+  </si>
+  <si>
+    <t>71241163</t>
+  </si>
+  <si>
+    <t>Jeremy Zadrimman Kause</t>
+  </si>
+  <si>
+    <t>71241164</t>
+  </si>
+  <si>
+    <t>Waraney Maikel Nathaniel Mambu</t>
+  </si>
+  <si>
+    <t>71241167</t>
+  </si>
+  <si>
+    <t>Arvin</t>
+  </si>
+  <si>
+    <t>71241168</t>
+  </si>
+  <si>
+    <t>Highriel Septyo Rantepulung</t>
+  </si>
+  <si>
+    <t>71241169</t>
+  </si>
+  <si>
+    <t>Rivano Putra Samudera</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +228,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,29 +553,324 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NIM</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nama</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
